--- a/DataAgregation/clusters_data.xlsx
+++ b/DataAgregation/clusters_data.xlsx
@@ -12,12 +12,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
   <si>
-    <t>13-23</t>
+    <t>13-26</t>
+  </si>
+  <si>
+    <t>27-40</t>
+  </si>
+  <si>
+    <t>41-53</t>
+  </si>
+  <si>
+    <t>54-64</t>
   </si>
   <si>
     <t>01.01.2018</t>
@@ -167,253 +176,523 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0">
-        <v>1757153</v>
+        <v>3506</v>
+      </c>
+      <c r="C2" s="0">
+        <v>3791</v>
+      </c>
+      <c r="D2" s="0">
+        <v>3886</v>
+      </c>
+      <c r="E2" s="0">
+        <v>3110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0">
-        <v>1757153</v>
+        <v>7040</v>
+      </c>
+      <c r="C3" s="0">
+        <v>7702</v>
+      </c>
+      <c r="D3" s="0">
+        <v>7593</v>
+      </c>
+      <c r="E3" s="0">
+        <v>5969</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0">
-        <v>1757153</v>
+        <v>10434</v>
+      </c>
+      <c r="C4" s="0">
+        <v>11307</v>
+      </c>
+      <c r="D4" s="0">
+        <v>11428</v>
+      </c>
+      <c r="E4" s="0">
+        <v>9067</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0">
-        <v>1757153</v>
+        <v>14059</v>
+      </c>
+      <c r="C5" s="0">
+        <v>15367</v>
+      </c>
+      <c r="D5" s="0">
+        <v>15125</v>
+      </c>
+      <c r="E5" s="0">
+        <v>11762</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0">
-        <v>1757153</v>
+        <v>17398</v>
+      </c>
+      <c r="C6" s="0">
+        <v>18819</v>
+      </c>
+      <c r="D6" s="0">
+        <v>18923</v>
+      </c>
+      <c r="E6" s="0">
+        <v>14819</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7" s="0">
-        <v>1757153</v>
+        <v>20868</v>
+      </c>
+      <c r="C7" s="0">
+        <v>22676</v>
+      </c>
+      <c r="D7" s="0">
+        <v>22728</v>
+      </c>
+      <c r="E7" s="0">
+        <v>17570</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B8" s="0">
-        <v>1757153</v>
+        <v>24605</v>
+      </c>
+      <c r="C8" s="0">
+        <v>26282</v>
+      </c>
+      <c r="D8" s="0">
+        <v>26518</v>
+      </c>
+      <c r="E8" s="0">
+        <v>20664</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B9" s="0">
-        <v>1757153</v>
+        <v>27880</v>
+      </c>
+      <c r="C9" s="0">
+        <v>30476</v>
+      </c>
+      <c r="D9" s="0">
+        <v>30158</v>
+      </c>
+      <c r="E9" s="0">
+        <v>23820</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10" s="0">
-        <v>1757153</v>
+        <v>31654</v>
+      </c>
+      <c r="C10" s="0">
+        <v>34001</v>
+      </c>
+      <c r="D10" s="0">
+        <v>33959</v>
+      </c>
+      <c r="E10" s="0">
+        <v>26819</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B11" s="0">
-        <v>1757153</v>
+        <v>35217</v>
+      </c>
+      <c r="C11" s="0">
+        <v>37843</v>
+      </c>
+      <c r="D11" s="0">
+        <v>37903</v>
+      </c>
+      <c r="E11" s="0">
+        <v>29504</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12" s="0">
-        <v>1757153</v>
+        <v>38648</v>
+      </c>
+      <c r="C12" s="0">
+        <v>41674</v>
+      </c>
+      <c r="D12" s="0">
+        <v>41366</v>
+      </c>
+      <c r="E12" s="0">
+        <v>32679</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B13" s="0">
-        <v>1757153</v>
+        <v>41818</v>
+      </c>
+      <c r="C13" s="0">
+        <v>45812</v>
+      </c>
+      <c r="D13" s="0">
+        <v>45594</v>
+      </c>
+      <c r="E13" s="0">
+        <v>35578</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B14" s="0">
-        <v>1757153</v>
+        <v>45451</v>
+      </c>
+      <c r="C14" s="0">
+        <v>49135</v>
+      </c>
+      <c r="D14" s="0">
+        <v>49398</v>
+      </c>
+      <c r="E14" s="0">
+        <v>38504</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B15" s="0">
-        <v>1757153</v>
+        <v>49070</v>
+      </c>
+      <c r="C15" s="0">
+        <v>52790</v>
+      </c>
+      <c r="D15" s="0">
+        <v>52933</v>
+      </c>
+      <c r="E15" s="0">
+        <v>41562</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B16" s="0">
-        <v>1757153</v>
+        <v>52478</v>
+      </c>
+      <c r="C16" s="0">
+        <v>56935</v>
+      </c>
+      <c r="D16" s="0">
+        <v>56557</v>
+      </c>
+      <c r="E16" s="0">
+        <v>44725</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B17" s="0">
-        <v>1757153</v>
+        <v>56329</v>
+      </c>
+      <c r="C17" s="0">
+        <v>60829</v>
+      </c>
+      <c r="D17" s="0">
+        <v>60482</v>
+      </c>
+      <c r="E17" s="0">
+        <v>46976</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B18" s="0">
-        <v>1757153</v>
+        <v>59477</v>
+      </c>
+      <c r="C18" s="0">
+        <v>64409</v>
+      </c>
+      <c r="D18" s="0">
+        <v>64251</v>
+      </c>
+      <c r="E18" s="0">
+        <v>50449</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19" s="0">
-        <v>1757153</v>
+        <v>63140</v>
+      </c>
+      <c r="C19" s="0">
+        <v>68350</v>
+      </c>
+      <c r="D19" s="0">
+        <v>68295</v>
+      </c>
+      <c r="E19" s="0">
+        <v>53322</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B20" s="0">
-        <v>1757153</v>
+        <v>66582</v>
+      </c>
+      <c r="C20" s="0">
+        <v>72045</v>
+      </c>
+      <c r="D20" s="0">
+        <v>71651</v>
+      </c>
+      <c r="E20" s="0">
+        <v>56820</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B21" s="0">
-        <v>1757153</v>
+        <v>70079</v>
+      </c>
+      <c r="C21" s="0">
+        <v>75735</v>
+      </c>
+      <c r="D21" s="0">
+        <v>75864</v>
+      </c>
+      <c r="E21" s="0">
+        <v>59558</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B22" s="0">
-        <v>1757153</v>
+        <v>73654</v>
+      </c>
+      <c r="C22" s="0">
+        <v>79440</v>
+      </c>
+      <c r="D22" s="0">
+        <v>79133</v>
+      </c>
+      <c r="E22" s="0">
+        <v>62580</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B23" s="0">
-        <v>1757153</v>
+        <v>77278</v>
+      </c>
+      <c r="C23" s="0">
+        <v>83808</v>
+      </c>
+      <c r="D23" s="0">
+        <v>83155</v>
+      </c>
+      <c r="E23" s="0">
+        <v>65075</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B24" s="0">
-        <v>1757153</v>
+        <v>80548</v>
+      </c>
+      <c r="C24" s="0">
+        <v>87187</v>
+      </c>
+      <c r="D24" s="0">
+        <v>87186</v>
+      </c>
+      <c r="E24" s="0">
+        <v>68096</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B25" s="0">
-        <v>1757153</v>
+        <v>83680</v>
+      </c>
+      <c r="C25" s="0">
+        <v>91135</v>
+      </c>
+      <c r="D25" s="0">
+        <v>90992</v>
+      </c>
+      <c r="E25" s="0">
+        <v>71468</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B26" s="0">
-        <v>1757153</v>
+        <v>87985</v>
+      </c>
+      <c r="C26" s="0">
+        <v>94665</v>
+      </c>
+      <c r="D26" s="0">
+        <v>94877</v>
+      </c>
+      <c r="E26" s="0">
+        <v>74241</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B27" s="0">
-        <v>1757153</v>
+        <v>91253</v>
+      </c>
+      <c r="C27" s="0">
+        <v>98566</v>
+      </c>
+      <c r="D27" s="0">
+        <v>98572</v>
+      </c>
+      <c r="E27" s="0">
+        <v>77067</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B28" s="0">
-        <v>1757153</v>
+        <v>94892</v>
+      </c>
+      <c r="C28" s="0">
+        <v>102531</v>
+      </c>
+      <c r="D28" s="0">
+        <v>101920</v>
+      </c>
+      <c r="E28" s="0">
+        <v>80218</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B29" s="0">
-        <v>1757153</v>
+        <v>97837</v>
+      </c>
+      <c r="C29" s="0">
+        <v>105988</v>
+      </c>
+      <c r="D29" s="0">
+        <v>106174</v>
+      </c>
+      <c r="E29" s="0">
+        <v>83125</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B30" s="0">
-        <v>1757153</v>
+        <v>101832</v>
+      </c>
+      <c r="C30" s="0">
+        <v>109606</v>
+      </c>
+      <c r="D30" s="0">
+        <v>109622</v>
+      </c>
+      <c r="E30" s="0">
+        <v>86606</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B31" s="0">
-        <v>1757153</v>
+        <v>105253</v>
+      </c>
+      <c r="C31" s="0">
+        <v>113673</v>
+      </c>
+      <c r="D31" s="0">
+        <v>113875</v>
+      </c>
+      <c r="E31" s="0">
+        <v>88779</v>
       </c>
     </row>
   </sheetData>

--- a/DataAgregation/clusters_data.xlsx
+++ b/DataAgregation/clusters_data.xlsx
@@ -5,14 +5,16 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="DAU" sheetId="1" r:id="rId3"/>
+    <sheet name="DAU" sheetId="4" r:id="rId7"/>
+    <sheet name="New Users" sheetId="5" r:id="rId9"/>
+    <sheet name="MAU" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -117,6 +119,18 @@
   </si>
   <si>
     <t>30.01.2018</t>
+  </si>
+  <si>
+    <t>13-23</t>
+  </si>
+  <si>
+    <t>24-36</t>
+  </si>
+  <si>
+    <t>37-49</t>
+  </si>
+  <si>
+    <t>50-64</t>
   </si>
 </sst>
 </file>
@@ -160,7 +174,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:E31"/>
   <sheetViews>
@@ -190,13 +204,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="0">
+        <v>3791</v>
+      </c>
+      <c r="C2" s="0">
+        <v>3886</v>
+      </c>
+      <c r="D2" s="0">
         <v>3506</v>
-      </c>
-      <c r="C2" s="0">
-        <v>3791</v>
-      </c>
-      <c r="D2" s="0">
-        <v>3886</v>
       </c>
       <c r="E2" s="0">
         <v>3110</v>
@@ -207,13 +221,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="0">
+        <v>7702</v>
+      </c>
+      <c r="C3" s="0">
+        <v>7593</v>
+      </c>
+      <c r="D3" s="0">
         <v>7040</v>
-      </c>
-      <c r="C3" s="0">
-        <v>7702</v>
-      </c>
-      <c r="D3" s="0">
-        <v>7593</v>
       </c>
       <c r="E3" s="0">
         <v>5969</v>
@@ -224,13 +238,13 @@
         <v>7</v>
       </c>
       <c r="B4" s="0">
+        <v>11307</v>
+      </c>
+      <c r="C4" s="0">
+        <v>11428</v>
+      </c>
+      <c r="D4" s="0">
         <v>10434</v>
-      </c>
-      <c r="C4" s="0">
-        <v>11307</v>
-      </c>
-      <c r="D4" s="0">
-        <v>11428</v>
       </c>
       <c r="E4" s="0">
         <v>9067</v>
@@ -241,13 +255,13 @@
         <v>8</v>
       </c>
       <c r="B5" s="0">
+        <v>15367</v>
+      </c>
+      <c r="C5" s="0">
+        <v>15125</v>
+      </c>
+      <c r="D5" s="0">
         <v>14059</v>
-      </c>
-      <c r="C5" s="0">
-        <v>15367</v>
-      </c>
-      <c r="D5" s="0">
-        <v>15125</v>
       </c>
       <c r="E5" s="0">
         <v>11762</v>
@@ -258,13 +272,13 @@
         <v>9</v>
       </c>
       <c r="B6" s="0">
+        <v>18819</v>
+      </c>
+      <c r="C6" s="0">
+        <v>18923</v>
+      </c>
+      <c r="D6" s="0">
         <v>17398</v>
-      </c>
-      <c r="C6" s="0">
-        <v>18819</v>
-      </c>
-      <c r="D6" s="0">
-        <v>18923</v>
       </c>
       <c r="E6" s="0">
         <v>14819</v>
@@ -275,13 +289,13 @@
         <v>10</v>
       </c>
       <c r="B7" s="0">
+        <v>22676</v>
+      </c>
+      <c r="C7" s="0">
+        <v>22728</v>
+      </c>
+      <c r="D7" s="0">
         <v>20868</v>
-      </c>
-      <c r="C7" s="0">
-        <v>22676</v>
-      </c>
-      <c r="D7" s="0">
-        <v>22728</v>
       </c>
       <c r="E7" s="0">
         <v>17570</v>
@@ -292,13 +306,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="0">
+        <v>26282</v>
+      </c>
+      <c r="C8" s="0">
+        <v>26518</v>
+      </c>
+      <c r="D8" s="0">
         <v>24605</v>
-      </c>
-      <c r="C8" s="0">
-        <v>26282</v>
-      </c>
-      <c r="D8" s="0">
-        <v>26518</v>
       </c>
       <c r="E8" s="0">
         <v>20664</v>
@@ -309,13 +323,13 @@
         <v>12</v>
       </c>
       <c r="B9" s="0">
+        <v>30476</v>
+      </c>
+      <c r="C9" s="0">
+        <v>30158</v>
+      </c>
+      <c r="D9" s="0">
         <v>27880</v>
-      </c>
-      <c r="C9" s="0">
-        <v>30476</v>
-      </c>
-      <c r="D9" s="0">
-        <v>30158</v>
       </c>
       <c r="E9" s="0">
         <v>23820</v>
@@ -326,13 +340,13 @@
         <v>13</v>
       </c>
       <c r="B10" s="0">
+        <v>34001</v>
+      </c>
+      <c r="C10" s="0">
+        <v>33959</v>
+      </c>
+      <c r="D10" s="0">
         <v>31654</v>
-      </c>
-      <c r="C10" s="0">
-        <v>34001</v>
-      </c>
-      <c r="D10" s="0">
-        <v>33959</v>
       </c>
       <c r="E10" s="0">
         <v>26819</v>
@@ -343,13 +357,13 @@
         <v>14</v>
       </c>
       <c r="B11" s="0">
+        <v>37843</v>
+      </c>
+      <c r="C11" s="0">
+        <v>37903</v>
+      </c>
+      <c r="D11" s="0">
         <v>35217</v>
-      </c>
-      <c r="C11" s="0">
-        <v>37843</v>
-      </c>
-      <c r="D11" s="0">
-        <v>37903</v>
       </c>
       <c r="E11" s="0">
         <v>29504</v>
@@ -360,13 +374,13 @@
         <v>15</v>
       </c>
       <c r="B12" s="0">
+        <v>41674</v>
+      </c>
+      <c r="C12" s="0">
+        <v>41366</v>
+      </c>
+      <c r="D12" s="0">
         <v>38648</v>
-      </c>
-      <c r="C12" s="0">
-        <v>41674</v>
-      </c>
-      <c r="D12" s="0">
-        <v>41366</v>
       </c>
       <c r="E12" s="0">
         <v>32679</v>
@@ -377,13 +391,13 @@
         <v>16</v>
       </c>
       <c r="B13" s="0">
+        <v>45812</v>
+      </c>
+      <c r="C13" s="0">
+        <v>45594</v>
+      </c>
+      <c r="D13" s="0">
         <v>41818</v>
-      </c>
-      <c r="C13" s="0">
-        <v>45812</v>
-      </c>
-      <c r="D13" s="0">
-        <v>45594</v>
       </c>
       <c r="E13" s="0">
         <v>35578</v>
@@ -394,13 +408,13 @@
         <v>17</v>
       </c>
       <c r="B14" s="0">
+        <v>49135</v>
+      </c>
+      <c r="C14" s="0">
+        <v>49398</v>
+      </c>
+      <c r="D14" s="0">
         <v>45451</v>
-      </c>
-      <c r="C14" s="0">
-        <v>49135</v>
-      </c>
-      <c r="D14" s="0">
-        <v>49398</v>
       </c>
       <c r="E14" s="0">
         <v>38504</v>
@@ -411,13 +425,13 @@
         <v>18</v>
       </c>
       <c r="B15" s="0">
+        <v>52790</v>
+      </c>
+      <c r="C15" s="0">
+        <v>52933</v>
+      </c>
+      <c r="D15" s="0">
         <v>49070</v>
-      </c>
-      <c r="C15" s="0">
-        <v>52790</v>
-      </c>
-      <c r="D15" s="0">
-        <v>52933</v>
       </c>
       <c r="E15" s="0">
         <v>41562</v>
@@ -428,13 +442,13 @@
         <v>19</v>
       </c>
       <c r="B16" s="0">
+        <v>56935</v>
+      </c>
+      <c r="C16" s="0">
+        <v>56557</v>
+      </c>
+      <c r="D16" s="0">
         <v>52478</v>
-      </c>
-      <c r="C16" s="0">
-        <v>56935</v>
-      </c>
-      <c r="D16" s="0">
-        <v>56557</v>
       </c>
       <c r="E16" s="0">
         <v>44725</v>
@@ -445,13 +459,13 @@
         <v>20</v>
       </c>
       <c r="B17" s="0">
+        <v>60829</v>
+      </c>
+      <c r="C17" s="0">
+        <v>60482</v>
+      </c>
+      <c r="D17" s="0">
         <v>56329</v>
-      </c>
-      <c r="C17" s="0">
-        <v>60829</v>
-      </c>
-      <c r="D17" s="0">
-        <v>60482</v>
       </c>
       <c r="E17" s="0">
         <v>46976</v>
@@ -462,13 +476,13 @@
         <v>21</v>
       </c>
       <c r="B18" s="0">
+        <v>64409</v>
+      </c>
+      <c r="C18" s="0">
+        <v>64251</v>
+      </c>
+      <c r="D18" s="0">
         <v>59477</v>
-      </c>
-      <c r="C18" s="0">
-        <v>64409</v>
-      </c>
-      <c r="D18" s="0">
-        <v>64251</v>
       </c>
       <c r="E18" s="0">
         <v>50449</v>
@@ -479,13 +493,13 @@
         <v>22</v>
       </c>
       <c r="B19" s="0">
+        <v>68350</v>
+      </c>
+      <c r="C19" s="0">
+        <v>68295</v>
+      </c>
+      <c r="D19" s="0">
         <v>63140</v>
-      </c>
-      <c r="C19" s="0">
-        <v>68350</v>
-      </c>
-      <c r="D19" s="0">
-        <v>68295</v>
       </c>
       <c r="E19" s="0">
         <v>53322</v>
@@ -496,13 +510,13 @@
         <v>23</v>
       </c>
       <c r="B20" s="0">
+        <v>72045</v>
+      </c>
+      <c r="C20" s="0">
+        <v>71651</v>
+      </c>
+      <c r="D20" s="0">
         <v>66582</v>
-      </c>
-      <c r="C20" s="0">
-        <v>72045</v>
-      </c>
-      <c r="D20" s="0">
-        <v>71651</v>
       </c>
       <c r="E20" s="0">
         <v>56820</v>
@@ -513,13 +527,13 @@
         <v>24</v>
       </c>
       <c r="B21" s="0">
+        <v>75735</v>
+      </c>
+      <c r="C21" s="0">
+        <v>75864</v>
+      </c>
+      <c r="D21" s="0">
         <v>70079</v>
-      </c>
-      <c r="C21" s="0">
-        <v>75735</v>
-      </c>
-      <c r="D21" s="0">
-        <v>75864</v>
       </c>
       <c r="E21" s="0">
         <v>59558</v>
@@ -530,13 +544,13 @@
         <v>25</v>
       </c>
       <c r="B22" s="0">
+        <v>79440</v>
+      </c>
+      <c r="C22" s="0">
+        <v>79133</v>
+      </c>
+      <c r="D22" s="0">
         <v>73654</v>
-      </c>
-      <c r="C22" s="0">
-        <v>79440</v>
-      </c>
-      <c r="D22" s="0">
-        <v>79133</v>
       </c>
       <c r="E22" s="0">
         <v>62580</v>
@@ -547,13 +561,13 @@
         <v>26</v>
       </c>
       <c r="B23" s="0">
+        <v>83808</v>
+      </c>
+      <c r="C23" s="0">
+        <v>83155</v>
+      </c>
+      <c r="D23" s="0">
         <v>77278</v>
-      </c>
-      <c r="C23" s="0">
-        <v>83808</v>
-      </c>
-      <c r="D23" s="0">
-        <v>83155</v>
       </c>
       <c r="E23" s="0">
         <v>65075</v>
@@ -564,13 +578,13 @@
         <v>27</v>
       </c>
       <c r="B24" s="0">
+        <v>87187</v>
+      </c>
+      <c r="C24" s="0">
+        <v>87186</v>
+      </c>
+      <c r="D24" s="0">
         <v>80548</v>
-      </c>
-      <c r="C24" s="0">
-        <v>87187</v>
-      </c>
-      <c r="D24" s="0">
-        <v>87186</v>
       </c>
       <c r="E24" s="0">
         <v>68096</v>
@@ -581,13 +595,13 @@
         <v>28</v>
       </c>
       <c r="B25" s="0">
+        <v>91135</v>
+      </c>
+      <c r="C25" s="0">
+        <v>90992</v>
+      </c>
+      <c r="D25" s="0">
         <v>83680</v>
-      </c>
-      <c r="C25" s="0">
-        <v>91135</v>
-      </c>
-      <c r="D25" s="0">
-        <v>90992</v>
       </c>
       <c r="E25" s="0">
         <v>71468</v>
@@ -598,13 +612,13 @@
         <v>29</v>
       </c>
       <c r="B26" s="0">
+        <v>94665</v>
+      </c>
+      <c r="C26" s="0">
+        <v>94877</v>
+      </c>
+      <c r="D26" s="0">
         <v>87985</v>
-      </c>
-      <c r="C26" s="0">
-        <v>94665</v>
-      </c>
-      <c r="D26" s="0">
-        <v>94877</v>
       </c>
       <c r="E26" s="0">
         <v>74241</v>
@@ -615,13 +629,13 @@
         <v>30</v>
       </c>
       <c r="B27" s="0">
+        <v>98566</v>
+      </c>
+      <c r="C27" s="0">
+        <v>98572</v>
+      </c>
+      <c r="D27" s="0">
         <v>91253</v>
-      </c>
-      <c r="C27" s="0">
-        <v>98566</v>
-      </c>
-      <c r="D27" s="0">
-        <v>98572</v>
       </c>
       <c r="E27" s="0">
         <v>77067</v>
@@ -632,13 +646,13 @@
         <v>31</v>
       </c>
       <c r="B28" s="0">
+        <v>102531</v>
+      </c>
+      <c r="C28" s="0">
+        <v>101920</v>
+      </c>
+      <c r="D28" s="0">
         <v>94892</v>
-      </c>
-      <c r="C28" s="0">
-        <v>102531</v>
-      </c>
-      <c r="D28" s="0">
-        <v>101920</v>
       </c>
       <c r="E28" s="0">
         <v>80218</v>
@@ -649,13 +663,13 @@
         <v>32</v>
       </c>
       <c r="B29" s="0">
+        <v>105988</v>
+      </c>
+      <c r="C29" s="0">
+        <v>106174</v>
+      </c>
+      <c r="D29" s="0">
         <v>97837</v>
-      </c>
-      <c r="C29" s="0">
-        <v>105988</v>
-      </c>
-      <c r="D29" s="0">
-        <v>106174</v>
       </c>
       <c r="E29" s="0">
         <v>83125</v>
@@ -666,13 +680,13 @@
         <v>33</v>
       </c>
       <c r="B30" s="0">
+        <v>109606</v>
+      </c>
+      <c r="C30" s="0">
+        <v>109622</v>
+      </c>
+      <c r="D30" s="0">
         <v>101832</v>
-      </c>
-      <c r="C30" s="0">
-        <v>109606</v>
-      </c>
-      <c r="D30" s="0">
-        <v>109622</v>
       </c>
       <c r="E30" s="0">
         <v>86606</v>
@@ -683,16 +697,597 @@
         <v>34</v>
       </c>
       <c r="B31" s="0">
+        <v>113673</v>
+      </c>
+      <c r="C31" s="0">
+        <v>113875</v>
+      </c>
+      <c r="D31" s="0">
         <v>105253</v>
-      </c>
-      <c r="C31" s="0">
-        <v>113673</v>
-      </c>
-      <c r="D31" s="0">
-        <v>113875</v>
       </c>
       <c r="E31" s="0">
         <v>88779</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0">
+        <v>3791</v>
+      </c>
+      <c r="C2" s="0">
+        <v>3886</v>
+      </c>
+      <c r="D2" s="0">
+        <v>3506</v>
+      </c>
+      <c r="E2" s="0">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="0">
+        <v>6567</v>
+      </c>
+      <c r="C3" s="0">
+        <v>6418</v>
+      </c>
+      <c r="D3" s="0">
+        <v>6009</v>
+      </c>
+      <c r="E3" s="0">
+        <v>5047</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0">
+        <v>10501</v>
+      </c>
+      <c r="C4" s="0">
+        <v>10620</v>
+      </c>
+      <c r="D4" s="0">
+        <v>9713</v>
+      </c>
+      <c r="E4" s="0">
+        <v>8447</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0">
+        <v>13392</v>
+      </c>
+      <c r="C5" s="0">
+        <v>13114</v>
+      </c>
+      <c r="D5" s="0">
+        <v>12238</v>
+      </c>
+      <c r="E5" s="0">
+        <v>10204</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="0">
+        <v>16632</v>
+      </c>
+      <c r="C6" s="0">
+        <v>16699</v>
+      </c>
+      <c r="D6" s="0">
+        <v>15394</v>
+      </c>
+      <c r="E6" s="0">
+        <v>13146</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="0">
+        <v>18152</v>
+      </c>
+      <c r="C7" s="0">
+        <v>18158</v>
+      </c>
+      <c r="D7" s="0">
+        <v>16609</v>
+      </c>
+      <c r="E7" s="0">
+        <v>14106</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="0">
+        <v>21602</v>
+      </c>
+      <c r="C8" s="0">
+        <v>21760</v>
+      </c>
+      <c r="D8" s="0">
+        <v>20249</v>
+      </c>
+      <c r="E8" s="0">
+        <v>17001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="0">
+        <v>23051</v>
+      </c>
+      <c r="C9" s="0">
+        <v>22558</v>
+      </c>
+      <c r="D9" s="0">
+        <v>21146</v>
+      </c>
+      <c r="E9" s="0">
+        <v>17852</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="0">
+        <v>25328</v>
+      </c>
+      <c r="C10" s="0">
+        <v>25104</v>
+      </c>
+      <c r="D10" s="0">
+        <v>23591</v>
+      </c>
+      <c r="E10" s="0">
+        <v>19817</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="0">
+        <v>26249</v>
+      </c>
+      <c r="C11" s="0">
+        <v>25998</v>
+      </c>
+      <c r="D11" s="0">
+        <v>24301</v>
+      </c>
+      <c r="E11" s="0">
+        <v>20245</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="0">
+        <v>29473</v>
+      </c>
+      <c r="C12" s="0">
+        <v>29241</v>
+      </c>
+      <c r="D12" s="0">
+        <v>27367</v>
+      </c>
+      <c r="E12" s="0">
+        <v>23210</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="0">
+        <v>29226</v>
+      </c>
+      <c r="C13" s="0">
+        <v>29040</v>
+      </c>
+      <c r="D13" s="0">
+        <v>26900</v>
+      </c>
+      <c r="E13" s="0">
+        <v>22785</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="0">
+        <v>32523</v>
+      </c>
+      <c r="C14" s="0">
+        <v>32695</v>
+      </c>
+      <c r="D14" s="0">
+        <v>30204</v>
+      </c>
+      <c r="E14" s="0">
+        <v>25525</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="0">
+        <v>31672</v>
+      </c>
+      <c r="C15" s="0">
+        <v>31774</v>
+      </c>
+      <c r="D15" s="0">
+        <v>29442</v>
+      </c>
+      <c r="E15" s="0">
+        <v>24785</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="0">
+        <v>35266</v>
+      </c>
+      <c r="C16" s="0">
+        <v>35122</v>
+      </c>
+      <c r="D16" s="0">
+        <v>32458</v>
+      </c>
+      <c r="E16" s="0">
+        <v>27633</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="0">
+        <v>35548</v>
+      </c>
+      <c r="C17" s="0">
+        <v>35446</v>
+      </c>
+      <c r="D17" s="0">
+        <v>33093</v>
+      </c>
+      <c r="E17" s="0">
+        <v>27645</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="0">
+        <v>37239</v>
+      </c>
+      <c r="C18" s="0">
+        <v>37037</v>
+      </c>
+      <c r="D18" s="0">
+        <v>34535</v>
+      </c>
+      <c r="E18" s="0">
+        <v>29152</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="0">
+        <v>38095</v>
+      </c>
+      <c r="C19" s="0">
+        <v>38174</v>
+      </c>
+      <c r="D19" s="0">
+        <v>35221</v>
+      </c>
+      <c r="E19" s="0">
+        <v>29994</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="0">
+        <v>38888</v>
+      </c>
+      <c r="C20" s="0">
+        <v>38836</v>
+      </c>
+      <c r="D20" s="0">
+        <v>35798</v>
+      </c>
+      <c r="E20" s="0">
+        <v>30679</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="0">
+        <v>40740</v>
+      </c>
+      <c r="C21" s="0">
+        <v>40974</v>
+      </c>
+      <c r="D21" s="0">
+        <v>37927</v>
+      </c>
+      <c r="E21" s="0">
+        <v>32285</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="0">
+        <v>40024</v>
+      </c>
+      <c r="C22" s="0">
+        <v>40383</v>
+      </c>
+      <c r="D22" s="0">
+        <v>37416</v>
+      </c>
+      <c r="E22" s="0">
+        <v>31958</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="0">
+        <v>42196</v>
+      </c>
+      <c r="C23" s="0">
+        <v>41653</v>
+      </c>
+      <c r="D23" s="0">
+        <v>38790</v>
+      </c>
+      <c r="E23" s="0">
+        <v>32729</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="0">
+        <v>42821</v>
+      </c>
+      <c r="C24" s="0">
+        <v>43122</v>
+      </c>
+      <c r="D24" s="0">
+        <v>39748</v>
+      </c>
+      <c r="E24" s="0">
+        <v>33533</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="0">
+        <v>43243</v>
+      </c>
+      <c r="C25" s="0">
+        <v>43641</v>
+      </c>
+      <c r="D25" s="0">
+        <v>39807</v>
+      </c>
+      <c r="E25" s="0">
+        <v>34287</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="0">
+        <v>44532</v>
+      </c>
+      <c r="C26" s="0">
+        <v>45052</v>
+      </c>
+      <c r="D26" s="0">
+        <v>41775</v>
+      </c>
+      <c r="E26" s="0">
+        <v>35057</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="0">
+        <v>44313</v>
+      </c>
+      <c r="C27" s="0">
+        <v>44396</v>
+      </c>
+      <c r="D27" s="0">
+        <v>41547</v>
+      </c>
+      <c r="E27" s="0">
+        <v>34524</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="0">
+        <v>45437</v>
+      </c>
+      <c r="C28" s="0">
+        <v>45455</v>
+      </c>
+      <c r="D28" s="0">
+        <v>42095</v>
+      </c>
+      <c r="E28" s="0">
+        <v>35484</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="0">
+        <v>45021</v>
+      </c>
+      <c r="C29" s="0">
+        <v>44912</v>
+      </c>
+      <c r="D29" s="0">
+        <v>41474</v>
+      </c>
+      <c r="E29" s="0">
+        <v>35312</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="0">
+        <v>46677</v>
+      </c>
+      <c r="C30" s="0">
+        <v>46500</v>
+      </c>
+      <c r="D30" s="0">
+        <v>43141</v>
+      </c>
+      <c r="E30" s="0">
+        <v>36552</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="0">
+        <v>45788</v>
+      </c>
+      <c r="C31" s="0">
+        <v>45962</v>
+      </c>
+      <c r="D31" s="0">
+        <v>42517</v>
+      </c>
+      <c r="E31" s="0">
+        <v>36028</v>
+      </c>
+    </row>
+  </sheetData>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>1007525</v>
+      </c>
+      <c r="B2" s="0">
+        <v>1258646</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1256524</v>
+      </c>
+      <c r="D2" s="0">
+        <v>1254952</v>
       </c>
     </row>
   </sheetData>
